--- a/RA/Nani_2022/T_15/T15_G4_5_Coding_explanation.xlsx
+++ b/RA/Nani_2022/T_15/T15_G4_5_Coding_explanation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Dropbox (UiO)\Nani\2022\T_15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416E07DA-9728-475A-B6B3-001EF43B4997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42B8E47-E220-4C16-82EE-2DE4848502C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16125" yWindow="5220" windowWidth="17280" windowHeight="9465" activeTab="1" xr2:uid="{746C5153-993A-4D34-9FB4-52770A3E65E7}"/>
+    <workbookView xWindow="9420" yWindow="1365" windowWidth="17280" windowHeight="9465" activeTab="1" xr2:uid="{746C5153-993A-4D34-9FB4-52770A3E65E7}"/>
   </bookViews>
   <sheets>
     <sheet name="1_G4_PV" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1212">
   <si>
     <t>IDCNTRY</t>
   </si>
@@ -3264,9 +3264,6 @@
     <t>SPDHour</t>
   </si>
   <si>
-    <t>(1=0) (2=1) (3=1) (4=3) (5=4)</t>
-  </si>
-  <si>
     <t>TIMSS compound variable: SEAS</t>
   </si>
   <si>
@@ -3604,6 +3601,75 @@
   </si>
   <si>
     <t>Number of students in Grade 4 class</t>
+  </si>
+  <si>
+    <t>SPrpLiv</t>
+  </si>
+  <si>
+    <t>SPrpBody</t>
+  </si>
+  <si>
+    <t>SPrpLife</t>
+  </si>
+  <si>
+    <t>SPrpPlan</t>
+  </si>
+  <si>
+    <t>SPrpFeat</t>
+  </si>
+  <si>
+    <t>SPrpComm</t>
+  </si>
+  <si>
+    <t>SPrpHum</t>
+  </si>
+  <si>
+    <t>SPrpMat</t>
+  </si>
+  <si>
+    <t>SPrpClas</t>
+  </si>
+  <si>
+    <t>SPrpMix</t>
+  </si>
+  <si>
+    <t>SPrpChg</t>
+  </si>
+  <si>
+    <t>SPrpEne</t>
+  </si>
+  <si>
+    <t>SPrpLigt</t>
+  </si>
+  <si>
+    <t>SPrpElec</t>
+  </si>
+  <si>
+    <t>SPrpMag</t>
+  </si>
+  <si>
+    <t>SPrpForc</t>
+  </si>
+  <si>
+    <t>SPrpLand</t>
+  </si>
+  <si>
+    <t>SPrpWate</t>
+  </si>
+  <si>
+    <t>SPrpWeat</t>
+  </si>
+  <si>
+    <t>SPrpFosl</t>
+  </si>
+  <si>
+    <t>SPrpSolr</t>
+  </si>
+  <si>
+    <t>SPrpMotn</t>
+  </si>
+  <si>
+    <t>SPrpReas</t>
   </si>
 </sst>
 </file>
@@ -5785,8 +5851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5FA07-9B9D-4A17-BC77-5F8D8DD42BC3}">
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159:C161"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6166,7 +6232,7 @@
         <v>581</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F25" s="7">
         <v>9</v>
@@ -6189,7 +6255,7 @@
         <v>582</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F26" s="7">
         <v>9</v>
@@ -6212,7 +6278,7 @@
         <v>583</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F27" s="7">
         <v>99</v>
@@ -7031,10 +7097,10 @@
         <v>337</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>1105</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>1106</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>619</v>
@@ -7054,10 +7120,10 @@
         <v>338</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>620</v>
@@ -7077,10 +7143,10 @@
         <v>339</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>621</v>
@@ -7100,10 +7166,10 @@
         <v>340</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>622</v>
@@ -7123,10 +7189,10 @@
         <v>341</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>623</v>
@@ -7146,10 +7212,10 @@
         <v>342</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>624</v>
@@ -7169,10 +7235,10 @@
         <v>343</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>625</v>
@@ -7192,10 +7258,10 @@
         <v>344</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>626</v>
@@ -7215,10 +7281,10 @@
         <v>345</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>627</v>
@@ -7238,10 +7304,10 @@
         <v>346</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>628</v>
@@ -7261,10 +7327,10 @@
         <v>347</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>629</v>
@@ -7284,10 +7350,10 @@
         <v>348</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>630</v>
@@ -7307,10 +7373,10 @@
         <v>349</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>631</v>
@@ -7330,10 +7396,10 @@
         <v>350</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>632</v>
@@ -7698,7 +7764,7 @@
         <v>366</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>905</v>
@@ -7718,7 +7784,7 @@
         <v>367</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>906</v>
@@ -8124,10 +8190,10 @@
         <v>385</v>
       </c>
       <c r="B111" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>1121</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>1122</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>667</v>
@@ -8147,10 +8213,10 @@
         <v>386</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>668</v>
@@ -8170,10 +8236,10 @@
         <v>387</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>669</v>
@@ -8193,10 +8259,10 @@
         <v>388</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>670</v>
@@ -8216,10 +8282,10 @@
         <v>389</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>671</v>
@@ -8239,10 +8305,10 @@
         <v>390</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>672</v>
@@ -8262,10 +8328,10 @@
         <v>391</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>673</v>
@@ -8285,10 +8351,10 @@
         <v>392</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>674</v>
@@ -8308,10 +8374,10 @@
         <v>393</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>675</v>
@@ -8656,7 +8722,7 @@
         <v>940</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>690</v>
@@ -8679,7 +8745,7 @@
         <v>940</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>691</v>
@@ -8702,7 +8768,7 @@
         <v>940</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>692</v>
@@ -9024,7 +9090,7 @@
         <v>973</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>706</v>
@@ -9113,7 +9179,7 @@
         <v>428</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>990</v>
@@ -9136,7 +9202,7 @@
         <v>429</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>991</v>
@@ -9159,7 +9225,7 @@
         <v>430</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>992</v>
@@ -9182,7 +9248,7 @@
         <v>431</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>993</v>
@@ -9205,7 +9271,7 @@
         <v>432</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>994</v>
@@ -9228,10 +9294,10 @@
         <v>433</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>715</v>
@@ -9251,10 +9317,10 @@
         <v>434</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>716</v>
@@ -9274,10 +9340,10 @@
         <v>435</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>717</v>
@@ -9481,16 +9547,16 @@
         <v>444</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>726</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F170" s="7">
         <v>9</v>
@@ -9504,16 +9570,16 @@
         <v>445</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>727</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F171" s="7">
         <v>9</v>
@@ -9527,16 +9593,16 @@
         <v>446</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>728</v>
       </c>
       <c r="E172" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F172" s="7">
         <v>9</v>
@@ -9550,16 +9616,16 @@
         <v>447</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>729</v>
       </c>
       <c r="E173" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F173" s="7">
         <v>9</v>
@@ -9573,16 +9639,16 @@
         <v>448</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>730</v>
       </c>
       <c r="E174" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F174" s="7">
         <v>9</v>
@@ -9596,16 +9662,16 @@
         <v>449</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>731</v>
       </c>
       <c r="E175" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F175" s="7">
         <v>9</v>
@@ -9619,16 +9685,16 @@
         <v>450</v>
       </c>
       <c r="B176" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C176" s="12" t="s">
         <v>1144</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>1145</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>732</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F176" s="7">
         <v>9</v>
@@ -9642,16 +9708,16 @@
         <v>451</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>733</v>
       </c>
       <c r="E177" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F177" s="7">
         <v>9</v>
@@ -9665,16 +9731,16 @@
         <v>452</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>734</v>
       </c>
       <c r="E178" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F178" s="7">
         <v>9</v>
@@ -9688,16 +9754,16 @@
         <v>453</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>735</v>
       </c>
       <c r="E179" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F179" s="7">
         <v>9</v>
@@ -9711,16 +9777,16 @@
         <v>454</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>736</v>
       </c>
       <c r="E180" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F180" s="7">
         <v>9</v>
@@ -9734,16 +9800,16 @@
         <v>455</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>737</v>
       </c>
       <c r="E181" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F181" s="7">
         <v>9</v>
@@ -9757,16 +9823,16 @@
         <v>456</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>738</v>
       </c>
       <c r="E182" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F182" s="7">
         <v>9</v>
@@ -9780,16 +9846,16 @@
         <v>457</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>739</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F183" s="7">
         <v>9</v>
@@ -9803,16 +9869,16 @@
         <v>458</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>740</v>
       </c>
       <c r="E184" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F184" s="7">
         <v>9</v>
@@ -9826,16 +9892,16 @@
         <v>459</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>741</v>
       </c>
       <c r="E185" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F185" s="7">
         <v>9</v>
@@ -9849,16 +9915,16 @@
         <v>460</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>742</v>
       </c>
       <c r="E186" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F186" s="7">
         <v>9</v>
@@ -9915,10 +9981,10 @@
         <v>463</v>
       </c>
       <c r="B189" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>1158</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>1159</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>745</v>
@@ -9938,10 +10004,10 @@
         <v>464</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>746</v>
@@ -9961,10 +10027,10 @@
         <v>465</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>747</v>
@@ -9984,10 +10050,10 @@
         <v>466</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>748</v>
@@ -10007,10 +10073,10 @@
         <v>467</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>749</v>
@@ -10030,10 +10096,10 @@
         <v>468</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>750</v>
@@ -10053,10 +10119,10 @@
         <v>469</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>751</v>
@@ -10076,10 +10142,10 @@
         <v>470</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>752</v>
@@ -10099,10 +10165,10 @@
         <v>471</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>753</v>
@@ -10122,10 +10188,10 @@
         <v>472</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>754</v>
@@ -10562,7 +10628,7 @@
         <v>1029</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>773</v>
@@ -10585,7 +10651,7 @@
         <v>1029</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>774</v>
@@ -10608,7 +10674,7 @@
         <v>1029</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>775</v>
@@ -10631,7 +10697,7 @@
         <v>1029</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>776</v>
@@ -11295,10 +11361,10 @@
         <v>523</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>805</v>
@@ -11318,10 +11384,10 @@
         <v>524</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>1143</v>
+        <v>1172</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>806</v>
@@ -11341,10 +11407,10 @@
         <v>525</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>1143</v>
+        <v>1172</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>807</v>
@@ -11557,7 +11623,7 @@
         <v>816</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>1076</v>
+        <v>995</v>
       </c>
       <c r="F260" s="7">
         <v>9</v>
@@ -11571,16 +11637,16 @@
         <v>535</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>1033</v>
+        <v>1189</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>817</v>
       </c>
       <c r="E261" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F261" s="7">
         <v>9</v>
@@ -11594,16 +11660,16 @@
         <v>536</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>1034</v>
+        <v>1190</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>818</v>
       </c>
       <c r="E262" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F262" s="7">
         <v>9</v>
@@ -11617,16 +11683,16 @@
         <v>537</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>1035</v>
+        <v>1191</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>819</v>
       </c>
       <c r="E263" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F263" s="7">
         <v>9</v>
@@ -11640,16 +11706,16 @@
         <v>538</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>1036</v>
+        <v>1192</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>820</v>
       </c>
       <c r="E264" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F264" s="7">
         <v>9</v>
@@ -11663,16 +11729,16 @@
         <v>539</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1050</v>
+        <v>1193</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>821</v>
       </c>
       <c r="E265" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F265" s="7">
         <v>9</v>
@@ -11686,16 +11752,16 @@
         <v>540</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1051</v>
+        <v>1194</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>822</v>
       </c>
       <c r="E266" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F266" s="7">
         <v>9</v>
@@ -11709,16 +11775,16 @@
         <v>541</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>1037</v>
+        <v>1195</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>823</v>
       </c>
       <c r="E267" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F267" s="7">
         <v>9</v>
@@ -11732,16 +11798,16 @@
         <v>542</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>1038</v>
+        <v>1196</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>824</v>
       </c>
       <c r="E268" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F268" s="7">
         <v>9</v>
@@ -11755,16 +11821,16 @@
         <v>543</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1039</v>
+        <v>1197</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>825</v>
       </c>
       <c r="E269" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F269" s="7">
         <v>9</v>
@@ -11778,16 +11844,16 @@
         <v>544</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>1040</v>
+        <v>1198</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>826</v>
       </c>
       <c r="E270" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F270" s="7">
         <v>9</v>
@@ -11801,16 +11867,16 @@
         <v>545</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1052</v>
+        <v>1199</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>827</v>
       </c>
       <c r="E271" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F271" s="7">
         <v>9</v>
@@ -11824,16 +11890,16 @@
         <v>546</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>1042</v>
+        <v>1200</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>828</v>
       </c>
       <c r="E272" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F272" s="7">
         <v>9</v>
@@ -11847,16 +11913,16 @@
         <v>547</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>1043</v>
+        <v>1201</v>
       </c>
       <c r="D273" s="5" t="s">
         <v>829</v>
       </c>
       <c r="E273" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F273" s="7">
         <v>9</v>
@@ -11870,16 +11936,16 @@
         <v>548</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>1044</v>
+        <v>1202</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>830</v>
       </c>
       <c r="E274" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F274" s="7">
         <v>9</v>
@@ -11893,16 +11959,16 @@
         <v>549</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>1041</v>
+        <v>1203</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>831</v>
       </c>
       <c r="E275" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F275" s="7">
         <v>9</v>
@@ -11916,16 +11982,16 @@
         <v>550</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>1045</v>
+        <v>1204</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>832</v>
       </c>
       <c r="E276" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F276" s="7">
         <v>9</v>
@@ -11939,16 +12005,16 @@
         <v>551</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>1053</v>
+        <v>1205</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>833</v>
       </c>
       <c r="E277" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F277" s="7">
         <v>9</v>
@@ -11962,16 +12028,16 @@
         <v>552</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>1054</v>
+        <v>1206</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>834</v>
       </c>
       <c r="E278" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F278" s="7">
         <v>9</v>
@@ -11985,16 +12051,16 @@
         <v>553</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>1055</v>
+        <v>1207</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>835</v>
       </c>
       <c r="E279" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F279" s="7">
         <v>9</v>
@@ -12008,16 +12074,16 @@
         <v>554</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>1046</v>
+        <v>1208</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>836</v>
       </c>
       <c r="E280" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F280" s="7">
         <v>9</v>
@@ -12031,16 +12097,16 @@
         <v>555</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>1047</v>
+        <v>1209</v>
       </c>
       <c r="D281" s="5" t="s">
         <v>837</v>
       </c>
       <c r="E281" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F281" s="7">
         <v>9</v>
@@ -12054,16 +12120,16 @@
         <v>556</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>1048</v>
+        <v>1210</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>838</v>
       </c>
       <c r="E282" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F282" s="7">
         <v>9</v>
@@ -12077,16 +12143,16 @@
         <v>557</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>1056</v>
+        <v>1211</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>839</v>
       </c>
       <c r="E283" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F283" s="7">
         <v>9</v>
@@ -12100,10 +12166,10 @@
         <v>558</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C284" s="8" t="s">
         <v>1077</v>
-      </c>
-      <c r="C284" s="8" t="s">
-        <v>1078</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>840</v>
@@ -12120,10 +12186,10 @@
         <v>559</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>841</v>
@@ -12143,10 +12209,10 @@
         <v>560</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C286" s="4" t="s">
         <v>1080</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>1081</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>842</v>
@@ -12163,10 +12229,10 @@
         <v>561</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>843</v>
@@ -12186,10 +12252,10 @@
         <v>562</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>844</v>
@@ -12206,10 +12272,10 @@
         <v>563</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D289" s="5" t="s">
         <v>845</v>
@@ -12229,10 +12295,10 @@
         <v>564</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C290" s="4" t="s">
         <v>1083</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>1084</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>846</v>
@@ -12249,10 +12315,10 @@
         <v>565</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>847</v>
@@ -12272,10 +12338,10 @@
         <v>566</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>848</v>
@@ -12292,10 +12358,10 @@
         <v>567</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>849</v>
@@ -12315,10 +12381,10 @@
         <v>568</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D294" s="5" t="s">
         <v>850</v>
@@ -12335,10 +12401,10 @@
         <v>569</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D295" s="5" t="s">
         <v>851</v>
@@ -12358,10 +12424,10 @@
         <v>570</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C296" s="4" t="s">
         <v>1088</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>1089</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>852</v>
@@ -12378,10 +12444,10 @@
         <v>571</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>853</v>
@@ -12401,16 +12467,16 @@
         <v>572</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>1091</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>1092</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>854</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F298" s="7">
         <v>9</v>
@@ -12424,16 +12490,16 @@
         <v>573</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>855</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F299" s="7">
         <v>9</v>
@@ -12447,10 +12513,10 @@
         <v>574</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>1093</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>1094</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>856</v>
@@ -12467,10 +12533,10 @@
         <v>575</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>857</v>
@@ -12487,10 +12553,10 @@
         <v>576</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>858</v>
@@ -12507,10 +12573,10 @@
         <v>577</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C303" s="4" t="s">
         <v>1099</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>1100</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>859</v>
@@ -12527,10 +12593,10 @@
         <v>578</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>860</v>
@@ -12547,10 +12613,10 @@
         <v>579</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>861</v>

--- a/RA/Nani_2022/T_15/T15_G4_5_Coding_explanation.xlsx
+++ b/RA/Nani_2022/T_15/T15_G4_5_Coding_explanation.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Dropbox (UiO)\Nani\2022\T_15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42B8E47-E220-4C16-82EE-2DE4848502C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CFA92C-6F5F-40FD-8BD8-4441AD4B6FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1365" windowWidth="17280" windowHeight="9465" activeTab="1" xr2:uid="{746C5153-993A-4D34-9FB4-52770A3E65E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{746C5153-993A-4D34-9FB4-52770A3E65E7}"/>
   </bookViews>
   <sheets>
     <sheet name="1_G4_PV" sheetId="1" r:id="rId1"/>
-    <sheet name="3_G4_Teacher" sheetId="2" r:id="rId2"/>
+    <sheet name="2_G4_Student" sheetId="3" r:id="rId2"/>
+    <sheet name="3_G4_Teacher" sheetId="2" r:id="rId3"/>
+    <sheet name="4_G4_School" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="1948">
   <si>
     <t>IDCNTRY</t>
   </si>
@@ -3670,13 +3672,2221 @@
   </si>
   <si>
     <t>SPrpReas</t>
+  </si>
+  <si>
+    <t>ITSEX</t>
+  </si>
+  <si>
+    <t>ITADMINI</t>
+  </si>
+  <si>
+    <t>ITLANG</t>
+  </si>
+  <si>
+    <t>ASBG01</t>
+  </si>
+  <si>
+    <t>ASBG03</t>
+  </si>
+  <si>
+    <t>ASBG04</t>
+  </si>
+  <si>
+    <t>ASBG05A</t>
+  </si>
+  <si>
+    <t>ASBG05B</t>
+  </si>
+  <si>
+    <t>ASBG05C</t>
+  </si>
+  <si>
+    <t>ASBG05D</t>
+  </si>
+  <si>
+    <t>ASBG05E</t>
+  </si>
+  <si>
+    <t>ASBG05F</t>
+  </si>
+  <si>
+    <t>ASBG05G</t>
+  </si>
+  <si>
+    <t>ASBG05H</t>
+  </si>
+  <si>
+    <t>ASBG05I</t>
+  </si>
+  <si>
+    <t>ASBG05J</t>
+  </si>
+  <si>
+    <t>ASBG05K</t>
+  </si>
+  <si>
+    <t>ASBG06A</t>
+  </si>
+  <si>
+    <t>ASBG06B</t>
+  </si>
+  <si>
+    <t>ASBG07</t>
+  </si>
+  <si>
+    <t>ASBG08</t>
+  </si>
+  <si>
+    <t>ASBG09</t>
+  </si>
+  <si>
+    <t>ASBG10A</t>
+  </si>
+  <si>
+    <t>ASBG10B</t>
+  </si>
+  <si>
+    <t>ASBG10C</t>
+  </si>
+  <si>
+    <t>ASBG11A</t>
+  </si>
+  <si>
+    <t>ASBG11B</t>
+  </si>
+  <si>
+    <t>ASBG11C</t>
+  </si>
+  <si>
+    <t>ASBG11D</t>
+  </si>
+  <si>
+    <t>ASBG11E</t>
+  </si>
+  <si>
+    <t>ASBG11F</t>
+  </si>
+  <si>
+    <t>ASBG11G</t>
+  </si>
+  <si>
+    <t>ASBG12A</t>
+  </si>
+  <si>
+    <t>ASBG12B</t>
+  </si>
+  <si>
+    <t>ASBG12C</t>
+  </si>
+  <si>
+    <t>ASBG12D</t>
+  </si>
+  <si>
+    <t>ASBG12E</t>
+  </si>
+  <si>
+    <t>ASBG12F</t>
+  </si>
+  <si>
+    <t>ASBG12G</t>
+  </si>
+  <si>
+    <t>ASBG12H</t>
+  </si>
+  <si>
+    <t>ASBM01A</t>
+  </si>
+  <si>
+    <t>ASBM01B</t>
+  </si>
+  <si>
+    <t>ASBM01C</t>
+  </si>
+  <si>
+    <t>ASBM01D</t>
+  </si>
+  <si>
+    <t>ASBM01E</t>
+  </si>
+  <si>
+    <t>ASBM01F</t>
+  </si>
+  <si>
+    <t>ASBM01G</t>
+  </si>
+  <si>
+    <t>ASBM01H</t>
+  </si>
+  <si>
+    <t>ASBM01I</t>
+  </si>
+  <si>
+    <t>ASBM02A</t>
+  </si>
+  <si>
+    <t>ASBM02B</t>
+  </si>
+  <si>
+    <t>ASBM02C</t>
+  </si>
+  <si>
+    <t>ASBM02D</t>
+  </si>
+  <si>
+    <t>ASBM02E</t>
+  </si>
+  <si>
+    <t>ASBM02F</t>
+  </si>
+  <si>
+    <t>ASBM02G</t>
+  </si>
+  <si>
+    <t>ASBM02H</t>
+  </si>
+  <si>
+    <t>ASBM02I</t>
+  </si>
+  <si>
+    <t>ASBM02J</t>
+  </si>
+  <si>
+    <t>ASBM03A</t>
+  </si>
+  <si>
+    <t>ASBM03B</t>
+  </si>
+  <si>
+    <t>ASBM03C</t>
+  </si>
+  <si>
+    <t>ASBM03D</t>
+  </si>
+  <si>
+    <t>ASBM03E</t>
+  </si>
+  <si>
+    <t>ASBM03F</t>
+  </si>
+  <si>
+    <t>ASBM03G</t>
+  </si>
+  <si>
+    <t>ASBM03H</t>
+  </si>
+  <si>
+    <t>ASBM03I</t>
+  </si>
+  <si>
+    <t>ASBS04A</t>
+  </si>
+  <si>
+    <t>ASBS04B</t>
+  </si>
+  <si>
+    <t>ASBS04C</t>
+  </si>
+  <si>
+    <t>ASBS04D</t>
+  </si>
+  <si>
+    <t>ASBS04E</t>
+  </si>
+  <si>
+    <t>ASBS04F</t>
+  </si>
+  <si>
+    <t>ASBS04G</t>
+  </si>
+  <si>
+    <t>ASBS04H</t>
+  </si>
+  <si>
+    <t>ASBS04I</t>
+  </si>
+  <si>
+    <t>ASBS05A</t>
+  </si>
+  <si>
+    <t>ASBS05B</t>
+  </si>
+  <si>
+    <t>ASBS05C</t>
+  </si>
+  <si>
+    <t>ASBS05D</t>
+  </si>
+  <si>
+    <t>ASBS05E</t>
+  </si>
+  <si>
+    <t>ASBS05F</t>
+  </si>
+  <si>
+    <t>ASBS05G</t>
+  </si>
+  <si>
+    <t>ASBS05H</t>
+  </si>
+  <si>
+    <t>ASBS05I</t>
+  </si>
+  <si>
+    <t>ASBS05J</t>
+  </si>
+  <si>
+    <t>ASBS06A</t>
+  </si>
+  <si>
+    <t>ASBS06B</t>
+  </si>
+  <si>
+    <t>ASBS06C</t>
+  </si>
+  <si>
+    <t>ASBS06D</t>
+  </si>
+  <si>
+    <t>ASBS06E</t>
+  </si>
+  <si>
+    <t>ASBS06F</t>
+  </si>
+  <si>
+    <t>ASBS06G</t>
+  </si>
+  <si>
+    <t>ITACCOMM1</t>
+  </si>
+  <si>
+    <t>ASDAGE</t>
+  </si>
+  <si>
+    <t>TOTWGT</t>
+  </si>
+  <si>
+    <t>HOUWGT</t>
+  </si>
+  <si>
+    <t>SENWGT</t>
+  </si>
+  <si>
+    <t>WGTADJ1</t>
+  </si>
+  <si>
+    <t>WGTADJ2</t>
+  </si>
+  <si>
+    <t>WGTADJ3</t>
+  </si>
+  <si>
+    <t>WGTFAC1</t>
+  </si>
+  <si>
+    <t>WGTFAC2</t>
+  </si>
+  <si>
+    <t>WGTFAC3</t>
+  </si>
+  <si>
+    <t>ASBGSSB</t>
+  </si>
+  <si>
+    <t>ASDGSSB</t>
+  </si>
+  <si>
+    <t>ASBGSB</t>
+  </si>
+  <si>
+    <t>ASDGSB</t>
+  </si>
+  <si>
+    <t>ASBGSLM</t>
+  </si>
+  <si>
+    <t>ASDGSLM</t>
+  </si>
+  <si>
+    <t>ASBGEML</t>
+  </si>
+  <si>
+    <t>ASDGEML</t>
+  </si>
+  <si>
+    <t>ASBGSCM</t>
+  </si>
+  <si>
+    <t>ASDGSCM</t>
+  </si>
+  <si>
+    <t>ASBGSLS</t>
+  </si>
+  <si>
+    <t>ASDGSLS</t>
+  </si>
+  <si>
+    <t>ASBGESL</t>
+  </si>
+  <si>
+    <t>ASDGESL</t>
+  </si>
+  <si>
+    <t>ASBGSCS</t>
+  </si>
+  <si>
+    <t>ASDGSCS</t>
+  </si>
+  <si>
+    <t>ASBGHRL</t>
+  </si>
+  <si>
+    <t>ASDGHRL</t>
+  </si>
+  <si>
+    <t>ASDG05S</t>
+  </si>
+  <si>
+    <t>ASDMLOWP</t>
+  </si>
+  <si>
+    <t>ASDSLOWP</t>
+  </si>
+  <si>
+    <t>Sex of Students</t>
+  </si>
+  <si>
+    <t>Test Administrator Position</t>
+  </si>
+  <si>
+    <t>Language of Testing</t>
+  </si>
+  <si>
+    <t>GEN\SEX OF STUDENT</t>
+  </si>
+  <si>
+    <t>GEN\OFTEN SPEAK &lt;LANG OF TEST&gt; AT HOME</t>
+  </si>
+  <si>
+    <t>GEN\AMOUNT OF BOOKS IN YOUR HOME</t>
+  </si>
+  <si>
+    <t>GEN\HOME POSSESS\COMPUTER TABLET OWN</t>
+  </si>
+  <si>
+    <t>GEN\HOME POSSESS\COMPUTER TABLET SHARED</t>
+  </si>
+  <si>
+    <t>GEN\HOME POSSESS\STUDY DESK</t>
+  </si>
+  <si>
+    <t>GEN\HOME POSSESS\OWN ROOM</t>
+  </si>
+  <si>
+    <t>GEN\HOME POSSESS\INTERNET CONNECTION</t>
+  </si>
+  <si>
+    <t>GEN\HOME POSSESS\MOBILE OWN</t>
+  </si>
+  <si>
+    <t>GEN\HOME POSSESS\GAMING SYSTEM</t>
+  </si>
+  <si>
+    <t>GEN\HOME POSSESS\&lt;COUNTRY SPECIFIC&gt;</t>
+  </si>
+  <si>
+    <t>GEN\WAS YOUR MOTHER BORN IN &lt;COUNTRY&gt;</t>
+  </si>
+  <si>
+    <t>GEN\WAS YOUR FATHER BORN IN &lt;COUNTRY&gt;</t>
+  </si>
+  <si>
+    <t>GEN\WERE YOU BORN IN &lt;COUNTRY&gt;</t>
+  </si>
+  <si>
+    <t>GEN\ABOUT HOW OFTEN ABSENT FROM SCHOOL</t>
+  </si>
+  <si>
+    <t>GEN\HOW OFTEN BREAKFAST ON SCHOOL DAYS</t>
+  </si>
+  <si>
+    <t>GEN\USE COMPUTER TABLET FOR HOMEWORK\HOME</t>
+  </si>
+  <si>
+    <t>GEN\USE COMPUTER TABLET FOR HOMEWORK\SCHOOL</t>
+  </si>
+  <si>
+    <t>GEN\USE COMPUTER TABLET FOR HOMEWORK\OTHER</t>
+  </si>
+  <si>
+    <t>GEN\AGREE\BEING IN SCHOOL</t>
+  </si>
+  <si>
+    <t>GEN\AGREE\SAFE AT SCHOOL</t>
+  </si>
+  <si>
+    <t>GEN\AGREE\BELONG AT SCHOOL</t>
+  </si>
+  <si>
+    <t>GEN\AGREE\SEE CLASSMATES</t>
+  </si>
+  <si>
+    <t>GEN\AGREE\TEACHERS FAIR</t>
+  </si>
+  <si>
+    <t>GEN\AGREE\PROUD TO GO TO THIS SCHOOL</t>
+  </si>
+  <si>
+    <t>GEN\AGREE\LEARN A LOT IN SCHOOL</t>
+  </si>
+  <si>
+    <t>GEN\HOW OFTEN\MADE FUN OF</t>
+  </si>
+  <si>
+    <t>GEN\HOW OFTEN\LEFT OUT OF GAMES</t>
+  </si>
+  <si>
+    <t>GEN\HOW OFTEN\SPREADING LIES ABOUT ME</t>
+  </si>
+  <si>
+    <t>GEN\HOW OFTEN\STEALING STH FROM ME</t>
+  </si>
+  <si>
+    <t>GEN\HOW OFTEN\HURT BY OTHERS</t>
+  </si>
+  <si>
+    <t>GEN\HOW OFTEN\FORCE TO DO STH</t>
+  </si>
+  <si>
+    <t>GEN\HOW OFTEN\EMBARRASS INFO</t>
+  </si>
+  <si>
+    <t>GEN\HOW OFTEN\THREATENED</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\ENJOY LEARNING MATHEMATICS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\WISH HAVE NOT TO STUDY MATH</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\MATH IS BORING</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\LEARN INTERESTING THINGS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\LIKE MATHEMATICS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\SCHOOLWORK INVOLVES NUMBERS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\LIKE MATH PROBLEMS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\LOOK FORWARD TO MATH LESSONS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\MATH FAVORITE SUBJECT</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\TEACHER EXPECTS TO DO</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\TEACHER IS EASY TO UNDERSTAND</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\INTERESTED IN WHAT TCHR SAYS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\INTERESTING THINGS TO DO</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\CLEAR ANSWERS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\TEACHER EXPLAINS GOOD</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\TEACHER SHOWS LEARNED</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\TEACHER DOES A VARIETY</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\HOW TO DO BETTER</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\TEACHER LISTENS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\USUALLY DO WELL IN MATH</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\HARDER FOR ME THAN FOR OTHERS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\JUST NOT GOOD IN MATH</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\LEARN QUICKLY IN MATHEMATICS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\MATH MAKES ME NERVOUS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\GOOD AT WORKING OUT PROBLEMS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\I AM GOOD AT MATHEMATICS</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\MATHEMATICS HARDER FOR ME</t>
+  </si>
+  <si>
+    <t>MAT\AGREE\MATH MAKES ME CONFUSED</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\ENJOY LEARNING SCIENCE</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\WISH HAVE NOT TO STUDY SCIENCE</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\SCIENCE IS BORING</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\LEARN INTERESTING THINGS</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\LIKE SCIENCE</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\LOOK FORWARD TO LEARN</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\SCIENCE TEACHES ME</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\SCIENCE EXPERIMENTS</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\FAVORITE SUBJECT</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\TEACHER EXPECTS TO DO</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\TEACHER EASY TO UNDERSTAND</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\INTERESTED IN WHAT TCHR SAYS</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\INTERESTING THINGS TO DO</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\CLEAR ANSWERS</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\TEACHER EXPLAINS GOOD</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\TEACHER SHOWS LEARNED</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\TEACHER DOES A VARIETY</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\HOW TO DO BETTER</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\TEACHER LISTENS</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\USUALLY DO WELL IN SCIENCE</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\HARDER FOR ME THAN FOR OTHERS</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\JUST NOT GOOD AT SCIENCE</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\LEARN QUICKLY IN SCIENCE</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\I AM GOOD AT SCIENCE</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\SCIENCE IS HARDER FOR ME</t>
+  </si>
+  <si>
+    <t>SCI\AGREE\SCIENCE MAKES ME CONFUSED</t>
+  </si>
+  <si>
+    <t>Special Accommodation\Achievement Session</t>
+  </si>
+  <si>
+    <t>Students Age</t>
+  </si>
+  <si>
+    <t>TOTAL STUDENT WEIGHT</t>
+  </si>
+  <si>
+    <t>HOUSE WEIGHT</t>
+  </si>
+  <si>
+    <t>SENATE WEIGHT</t>
+  </si>
+  <si>
+    <t>SCHOOL WEIGHT ADJUSTMENT</t>
+  </si>
+  <si>
+    <t>CLASS WEIGHT ADJUSTMENT</t>
+  </si>
+  <si>
+    <t>STUDENT WEIGHT ADJUSTMENT</t>
+  </si>
+  <si>
+    <t>SCHOOL WEIGHT FACTOR</t>
+  </si>
+  <si>
+    <t>CLASS WEIGHT FACTOR</t>
+  </si>
+  <si>
+    <t>STUDENT WEIGHT FACTOR</t>
+  </si>
+  <si>
+    <t>Students Sense of School Belonging/SCL</t>
+  </si>
+  <si>
+    <t>Students Sense of School Belonging/IDX</t>
+  </si>
+  <si>
+    <t>Student Bullying/SCL</t>
+  </si>
+  <si>
+    <t>Student Bullying/IDX</t>
+  </si>
+  <si>
+    <t>Students Like Learning Mathematics/SCL</t>
+  </si>
+  <si>
+    <t>Students Like Learning Mathematics/IDX</t>
+  </si>
+  <si>
+    <t>Engaging Teaching in Math Lessons/SCL</t>
+  </si>
+  <si>
+    <t>Engaging Teaching in Math Lessons/IDX</t>
+  </si>
+  <si>
+    <t>Students Confident in Mathematics/SCL</t>
+  </si>
+  <si>
+    <t>Students Confident in Mathematics/IDX</t>
+  </si>
+  <si>
+    <t>Students Like Learning Science/SCL</t>
+  </si>
+  <si>
+    <t>Students Like Learning Science/IDX</t>
+  </si>
+  <si>
+    <t>Engaging Teaching in Science Lessons/SCL</t>
+  </si>
+  <si>
+    <t>Engaging Teaching in Science Lessons/IDX</t>
+  </si>
+  <si>
+    <t>Students Confident in Science/SCL</t>
+  </si>
+  <si>
+    <t>Students Confident in Science/IDX</t>
+  </si>
+  <si>
+    <t>Home Resources for Learning/SCL</t>
+  </si>
+  <si>
+    <t>Home Resources for Learning/IDX</t>
+  </si>
+  <si>
+    <t>Number of Home Study Supports</t>
+  </si>
+  <si>
+    <t>Mathematics Ach Too Low for Estimation</t>
+  </si>
+  <si>
+    <t>Science Ach Too Low for Estimation</t>
+  </si>
+  <si>
+    <t>Student gender</t>
+  </si>
+  <si>
+    <t>Student languange at home</t>
+  </si>
+  <si>
+    <t>SES: Number of books at home</t>
+  </si>
+  <si>
+    <t>SES: Home posession</t>
+  </si>
+  <si>
+    <t>Parents' country of birth</t>
+  </si>
+  <si>
+    <t>Student's country of birth</t>
+  </si>
+  <si>
+    <t>Student absenteism</t>
+  </si>
+  <si>
+    <t>Student sense of belonging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullying </t>
+  </si>
+  <si>
+    <t>Intrinsic motivation for learning math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math teaching: Teacher support </t>
+  </si>
+  <si>
+    <t>Self concept for math</t>
+  </si>
+  <si>
+    <t>Intrinsic motivation for learning science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science teaching: Teacher support </t>
+  </si>
+  <si>
+    <t>Self concept for science</t>
+  </si>
+  <si>
+    <t>Using computer or tablet for school work</t>
+  </si>
+  <si>
+    <t>PCWkHome</t>
+  </si>
+  <si>
+    <t>PCWkSch</t>
+  </si>
+  <si>
+    <t>PCWkOth</t>
+  </si>
+  <si>
+    <t>TIMSS construct: Students Sense of School Belonging</t>
+  </si>
+  <si>
+    <t>TIMSS construct: Bullying</t>
+  </si>
+  <si>
+    <t>TIMSS construct: Students Like Learning Mathematics</t>
+  </si>
+  <si>
+    <t>TIMSS construct: Students Confident in Mathematics</t>
+  </si>
+  <si>
+    <t>TIMSS construct: Students Like Learning Science</t>
+  </si>
+  <si>
+    <t>TIMSS construct: Students Confident in Science</t>
+  </si>
+  <si>
+    <t>TIMSS construct: Home Resources for Learning</t>
+  </si>
+  <si>
+    <t>TIMSS cnstruct: Engaging teaching in math lessons</t>
+  </si>
+  <si>
+    <t>TIMSS cnstruct: Engaging teaching in science lessons</t>
+  </si>
+  <si>
+    <t>SCLEngM</t>
+  </si>
+  <si>
+    <t>IDXEngM</t>
+  </si>
+  <si>
+    <t>SCLEngS</t>
+  </si>
+  <si>
+    <t>IDXEngS</t>
+  </si>
+  <si>
+    <t>(1=0) (2=1) (3=2)</t>
+  </si>
+  <si>
+    <t>NStudSup</t>
+  </si>
+  <si>
+    <t>MAchLow</t>
+  </si>
+  <si>
+    <t>SAchLow</t>
+  </si>
+  <si>
+    <t>SCLHmSES</t>
+  </si>
+  <si>
+    <t>IDXHmSES</t>
+  </si>
+  <si>
+    <t>SCLConfS</t>
+  </si>
+  <si>
+    <t>IDXConfS</t>
+  </si>
+  <si>
+    <t>SCLLikeS</t>
+  </si>
+  <si>
+    <t>IDXLikeS</t>
+  </si>
+  <si>
+    <t>SCLConfM</t>
+  </si>
+  <si>
+    <t>IDXConfM</t>
+  </si>
+  <si>
+    <t>SCLLikeM</t>
+  </si>
+  <si>
+    <t>IDXLikeM</t>
+  </si>
+  <si>
+    <t>SCLBully</t>
+  </si>
+  <si>
+    <t>IDXBully</t>
+  </si>
+  <si>
+    <t>SCLBlong</t>
+  </si>
+  <si>
+    <t>IDXBlong</t>
+  </si>
+  <si>
+    <t>SexBoy</t>
+  </si>
+  <si>
+    <t>TestAdm</t>
+  </si>
+  <si>
+    <t>Language of student questionnaire</t>
+  </si>
+  <si>
+    <t>Country ID - Numeric ISO Code</t>
+  </si>
+  <si>
+    <t>Student Test Booklet</t>
+  </si>
+  <si>
+    <t>GendBoy</t>
+  </si>
+  <si>
+    <t>StdLang</t>
+  </si>
+  <si>
+    <t>SESBook</t>
+  </si>
+  <si>
+    <t>SESDesk</t>
+  </si>
+  <si>
+    <t>SESRoom</t>
+  </si>
+  <si>
+    <t>SESInter</t>
+  </si>
+  <si>
+    <t>SESPhone</t>
+  </si>
+  <si>
+    <t>SESCnt1</t>
+  </si>
+  <si>
+    <t>SESCnt2</t>
+  </si>
+  <si>
+    <t>SESCnt3</t>
+  </si>
+  <si>
+    <t>SESCnt4</t>
+  </si>
+  <si>
+    <t>SESComO</t>
+  </si>
+  <si>
+    <t>SESComS</t>
+  </si>
+  <si>
+    <t>SESGame</t>
+  </si>
+  <si>
+    <t>FaBorn</t>
+  </si>
+  <si>
+    <t>MoBorn</t>
+  </si>
+  <si>
+    <t>StdBorn</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Student breakfast</t>
+  </si>
+  <si>
+    <t>Breakf</t>
+  </si>
+  <si>
+    <t>BlgLike</t>
+  </si>
+  <si>
+    <t>BlgSafe</t>
+  </si>
+  <si>
+    <t>BlgSch</t>
+  </si>
+  <si>
+    <t>BlgFair</t>
+  </si>
+  <si>
+    <t>BlgProud</t>
+  </si>
+  <si>
+    <t>BlgMate</t>
+  </si>
+  <si>
+    <t>BlgLearn</t>
+  </si>
+  <si>
+    <t>BlyFun</t>
+  </si>
+  <si>
+    <t>BlyLeft</t>
+  </si>
+  <si>
+    <t>BlyLies</t>
+  </si>
+  <si>
+    <t>BlySteal</t>
+  </si>
+  <si>
+    <t>BlyHit</t>
+  </si>
+  <si>
+    <t>BlyForce</t>
+  </si>
+  <si>
+    <t>BlyThrt</t>
+  </si>
+  <si>
+    <t>BlyEmba</t>
+  </si>
+  <si>
+    <t>MEnjoy</t>
+  </si>
+  <si>
+    <t>MNotStdy</t>
+  </si>
+  <si>
+    <t>MBorng</t>
+  </si>
+  <si>
+    <t>MIntrst</t>
+  </si>
+  <si>
+    <t>MLike</t>
+  </si>
+  <si>
+    <t>MWrkNum</t>
+  </si>
+  <si>
+    <t>MProblem</t>
+  </si>
+  <si>
+    <t>MLokFrwd</t>
+  </si>
+  <si>
+    <t>MFavSub</t>
+  </si>
+  <si>
+    <t>MTcExp</t>
+  </si>
+  <si>
+    <t>MTcEasy</t>
+  </si>
+  <si>
+    <t>MTcClear</t>
+  </si>
+  <si>
+    <t>MTcGood</t>
+  </si>
+  <si>
+    <t>MTcVary</t>
+  </si>
+  <si>
+    <t>MTcShow</t>
+  </si>
+  <si>
+    <t>MTcImpr</t>
+  </si>
+  <si>
+    <t>MTcLisn</t>
+  </si>
+  <si>
+    <t>MTcInte</t>
+  </si>
+  <si>
+    <t>MTcThig</t>
+  </si>
+  <si>
+    <t>MSCWell</t>
+  </si>
+  <si>
+    <t>MSCHMate</t>
+  </si>
+  <si>
+    <t>MSCNoGod</t>
+  </si>
+  <si>
+    <t>MSCLearn</t>
+  </si>
+  <si>
+    <t>MSCNervs</t>
+  </si>
+  <si>
+    <t>MSCWork</t>
+  </si>
+  <si>
+    <t>MSCGood</t>
+  </si>
+  <si>
+    <t>MSCHSubj</t>
+  </si>
+  <si>
+    <t>MSCConfs</t>
+  </si>
+  <si>
+    <t>SEnjoy</t>
+  </si>
+  <si>
+    <t>SNotStdy</t>
+  </si>
+  <si>
+    <t>SBorng</t>
+  </si>
+  <si>
+    <t>SIntrst</t>
+  </si>
+  <si>
+    <t>SLike</t>
+  </si>
+  <si>
+    <t>SLokFrwd</t>
+  </si>
+  <si>
+    <t>STeach</t>
+  </si>
+  <si>
+    <t>SSciEx</t>
+  </si>
+  <si>
+    <t>SFavSub</t>
+  </si>
+  <si>
+    <t>STcExp</t>
+  </si>
+  <si>
+    <t>STcEasy</t>
+  </si>
+  <si>
+    <t>STcClear</t>
+  </si>
+  <si>
+    <t>STcGood</t>
+  </si>
+  <si>
+    <t>STcVary</t>
+  </si>
+  <si>
+    <t>STcInte</t>
+  </si>
+  <si>
+    <t>STcThig</t>
+  </si>
+  <si>
+    <t>STcShow</t>
+  </si>
+  <si>
+    <t>STcImpr</t>
+  </si>
+  <si>
+    <t>STcLisn</t>
+  </si>
+  <si>
+    <t>SSCWell</t>
+  </si>
+  <si>
+    <t>SSCHard</t>
+  </si>
+  <si>
+    <t>SSCNoGod</t>
+  </si>
+  <si>
+    <t>SSCLearn</t>
+  </si>
+  <si>
+    <t>SSCGood</t>
+  </si>
+  <si>
+    <t>SSCHardMe</t>
+  </si>
+  <si>
+    <t>SSCConfs</t>
+  </si>
+  <si>
+    <t>ACBG03A</t>
+  </si>
+  <si>
+    <t>ACBG03B</t>
+  </si>
+  <si>
+    <t>ACBG04</t>
+  </si>
+  <si>
+    <t>ACBG05A</t>
+  </si>
+  <si>
+    <t>ACBG05B</t>
+  </si>
+  <si>
+    <t>ACBG06A</t>
+  </si>
+  <si>
+    <t>ACBG06B</t>
+  </si>
+  <si>
+    <t>ACBG07A</t>
+  </si>
+  <si>
+    <t>ACBG07B</t>
+  </si>
+  <si>
+    <t>ACBG07C</t>
+  </si>
+  <si>
+    <t>ACBG07D</t>
+  </si>
+  <si>
+    <t>ACBG08A</t>
+  </si>
+  <si>
+    <t>ACBG08B</t>
+  </si>
+  <si>
+    <t>ACBG08C</t>
+  </si>
+  <si>
+    <t>ACBG09A</t>
+  </si>
+  <si>
+    <t>ACBG09B</t>
+  </si>
+  <si>
+    <t>ACBG10A</t>
+  </si>
+  <si>
+    <t>ACBG10B</t>
+  </si>
+  <si>
+    <t>ACBG11</t>
+  </si>
+  <si>
+    <t>ACBG12A</t>
+  </si>
+  <si>
+    <t>ACBG12B</t>
+  </si>
+  <si>
+    <t>ACBG13</t>
+  </si>
+  <si>
+    <t>ACBG13AA</t>
+  </si>
+  <si>
+    <t>ACBG13AB</t>
+  </si>
+  <si>
+    <t>ACBG13BA</t>
+  </si>
+  <si>
+    <t>ACBG13BB</t>
+  </si>
+  <si>
+    <t>ACBG14AA</t>
+  </si>
+  <si>
+    <t>ACBG14AB</t>
+  </si>
+  <si>
+    <t>ACBG14AC</t>
+  </si>
+  <si>
+    <t>ACBG14AD</t>
+  </si>
+  <si>
+    <t>ACBG14AE</t>
+  </si>
+  <si>
+    <t>ACBG14AF</t>
+  </si>
+  <si>
+    <t>ACBG14AG</t>
+  </si>
+  <si>
+    <t>ACBG14AH</t>
+  </si>
+  <si>
+    <t>ACBG14AI</t>
+  </si>
+  <si>
+    <t>ACBG14BA</t>
+  </si>
+  <si>
+    <t>ACBG14BB</t>
+  </si>
+  <si>
+    <t>ACBG14BC</t>
+  </si>
+  <si>
+    <t>ACBG14BD</t>
+  </si>
+  <si>
+    <t>ACBG14BE</t>
+  </si>
+  <si>
+    <t>ACBG14CA</t>
+  </si>
+  <si>
+    <t>ACBG14CB</t>
+  </si>
+  <si>
+    <t>ACBG14CC</t>
+  </si>
+  <si>
+    <t>ACBG14CD</t>
+  </si>
+  <si>
+    <t>ACBG15A</t>
+  </si>
+  <si>
+    <t>ACBG15B</t>
+  </si>
+  <si>
+    <t>ACBG15C</t>
+  </si>
+  <si>
+    <t>ACBG15D</t>
+  </si>
+  <si>
+    <t>ACBG15E</t>
+  </si>
+  <si>
+    <t>ACBG15F</t>
+  </si>
+  <si>
+    <t>ACBG15G</t>
+  </si>
+  <si>
+    <t>ACBG15H</t>
+  </si>
+  <si>
+    <t>ACBG15I</t>
+  </si>
+  <si>
+    <t>ACBG15J</t>
+  </si>
+  <si>
+    <t>ACBG15K</t>
+  </si>
+  <si>
+    <t>ACBG15L</t>
+  </si>
+  <si>
+    <t>ACBG15M</t>
+  </si>
+  <si>
+    <t>ACBG16A</t>
+  </si>
+  <si>
+    <t>ACBG16B</t>
+  </si>
+  <si>
+    <t>ACBG16C</t>
+  </si>
+  <si>
+    <t>ACBG16D</t>
+  </si>
+  <si>
+    <t>ACBG16E</t>
+  </si>
+  <si>
+    <t>ACBG16F</t>
+  </si>
+  <si>
+    <t>ACBG16G</t>
+  </si>
+  <si>
+    <t>ACBG16H</t>
+  </si>
+  <si>
+    <t>ACBG16I</t>
+  </si>
+  <si>
+    <t>ACBG16J</t>
+  </si>
+  <si>
+    <t>ACBG17A</t>
+  </si>
+  <si>
+    <t>ACBG17B</t>
+  </si>
+  <si>
+    <t>ACBG18A</t>
+  </si>
+  <si>
+    <t>ACBG18B</t>
+  </si>
+  <si>
+    <t>ACBG18C</t>
+  </si>
+  <si>
+    <t>ACBG18D</t>
+  </si>
+  <si>
+    <t>ACBG18E</t>
+  </si>
+  <si>
+    <t>ACBG18F</t>
+  </si>
+  <si>
+    <t>ACBG18G</t>
+  </si>
+  <si>
+    <t>ACBG18H</t>
+  </si>
+  <si>
+    <t>ACBG18I</t>
+  </si>
+  <si>
+    <t>ACBG18J</t>
+  </si>
+  <si>
+    <t>ACBG18K</t>
+  </si>
+  <si>
+    <t>ACBG19</t>
+  </si>
+  <si>
+    <t>ACBG20</t>
+  </si>
+  <si>
+    <t>ACBG21</t>
+  </si>
+  <si>
+    <t>ACBG22A</t>
+  </si>
+  <si>
+    <t>ACBG22B</t>
+  </si>
+  <si>
+    <t>SCHWGT</t>
+  </si>
+  <si>
+    <t>STOTWGTU</t>
+  </si>
+  <si>
+    <t>JKCREP</t>
+  </si>
+  <si>
+    <t>JKCZONE</t>
+  </si>
+  <si>
+    <t>ACBGMRS</t>
+  </si>
+  <si>
+    <t>ACDGMRS</t>
+  </si>
+  <si>
+    <t>ACBGSRS</t>
+  </si>
+  <si>
+    <t>ACDGSRS</t>
+  </si>
+  <si>
+    <t>ACBGEAS</t>
+  </si>
+  <si>
+    <t>ACDGEAS</t>
+  </si>
+  <si>
+    <t>ACBGDAS</t>
+  </si>
+  <si>
+    <t>ACDGDAS</t>
+  </si>
+  <si>
+    <t>ACBGLNS</t>
+  </si>
+  <si>
+    <t>ACDGLNS</t>
+  </si>
+  <si>
+    <t>ACDG03</t>
+  </si>
+  <si>
+    <t>ACDG08HY</t>
+  </si>
+  <si>
+    <t>GEN\STUDENTS BACKGROUND\ECONOMIC DISADVA</t>
+  </si>
+  <si>
+    <t>GEN\STUDENTS BACKGROUND\ECONOMIC AFFLUEN</t>
+  </si>
+  <si>
+    <t>GEN\PERCENT OF STUDENTS &lt;LANG OF TEST&gt;</t>
+  </si>
+  <si>
+    <t>GEN\HOW MANY PEOPLE LIVE IN AREA</t>
+  </si>
+  <si>
+    <t>GEN\IMMEDIATE AREA OF SCH LOCATION</t>
+  </si>
+  <si>
+    <t>GEN\FREE MEALS\BREAKFAST</t>
+  </si>
+  <si>
+    <t>GEN\FREE MEALS\LUNCH</t>
+  </si>
+  <si>
+    <t>GEN\EMPHASIS\WASHING HANDS</t>
+  </si>
+  <si>
+    <t>GEN\EMPHASIS\BRUSHING TEETH</t>
+  </si>
+  <si>
+    <t>GEN\EMPHASIS\HEALTHY DIET</t>
+  </si>
+  <si>
+    <t>GEN\EMPHASIS\DISEASE PREVENTION</t>
+  </si>
+  <si>
+    <t>GEN\INSTRUCTIONAL DAYS PER YEAR</t>
+  </si>
+  <si>
+    <t>GEN\TOTAL INSTRUCTIONAL TIME</t>
+  </si>
+  <si>
+    <t>GEN\INSTRUCTIONAL DAYS IN 1 CALENDER WEEK</t>
+  </si>
+  <si>
+    <t>GEN\PLACE FOR SCHOOLWORK</t>
+  </si>
+  <si>
+    <t>GEN\ASSIST WITH SCHOOLWORK</t>
+  </si>
+  <si>
+    <t>GEN\STUDENT ACHIEVEMENT USED\MATH</t>
+  </si>
+  <si>
+    <t>GEN\STUDENT ACHIEVEMENT USED\SCIENCE</t>
+  </si>
+  <si>
+    <t>GEN\TOTAL NUMBER COMPUTERS</t>
+  </si>
+  <si>
+    <t>GEN\EXISTING SCIENCE LABORATORY</t>
+  </si>
+  <si>
+    <t>GEN\ASSISTANCE AVAILABLE</t>
+  </si>
+  <si>
+    <t>GEN\HAVE SCHOOL LIBRARY</t>
+  </si>
+  <si>
+    <t>GEN\BOOKS WITH DIFFERENT TITLES\PRINT</t>
+  </si>
+  <si>
+    <t>GEN\BOOKS WITH DIFFERENT TITLES\DIGITAL</t>
+  </si>
+  <si>
+    <t>GEN\MAGAZINES WITH DIFFERENT TITLES\PRINT</t>
+  </si>
+  <si>
+    <t>GEN\MAGAZINES WITH DIFFERENT TITLES\DIGITAL</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\GEN\INSTRUCTIONAL MATERIAL</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\GEN\SUPPLIES</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\GEN\SCHOOL BUILDINGS</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\GEN\HEATING SYSTEMS</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\GEN\INSTRUCTIONAL SPACE</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\GEN\TECHNOLOGICAL STAFF</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\GEN\AUDIO VISUAL RESOURCES</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\GEN\COMPUTER TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\GEN\RESOURCES STD WITH DISAB</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\MAT\TEACH SPEC MATH</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\MAT\COMPUTER SOFTWARE</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\MAT\LIBRARY RESOURCES</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\MAT\CALCULATORS</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\MAT\CONCRETE OBJECTS</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\SCI\TEACH SPEC SCIENCE</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\SCI\COMPUTER SOFTWARE</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\SCI\LIBRARY RESOURCES</t>
+  </si>
+  <si>
+    <t>GEN\SHORTAGE\SCI\SCIENCE EQUIPMENT</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\TCH UNDERSTANDING</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\TCH SUCCESS</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\TCH EXPECTATIONS</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\TCH WORKING TOGETHER</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\TCH ABILITY TO INSPIRE</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\PARENTAL INVOLVEMENT</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\PARENTAL COMMITMENT</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\PARENTAL EXPECTATIONS</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\PARENTAL SUPPORT</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\PARENTAL PRESSURE</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\STD DESIRE TO DO WELL</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\STD REACH GOALS</t>
+  </si>
+  <si>
+    <t>GEN\SCH CHARACTER\STD RESPECT</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS\ARRIVING LATE AT SCHOOL</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS\ABSENTEEISM</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS\CLASSROOM DISTURBANCE</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS\CHEATING</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS\PROFANITY</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS\VANDALISM</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS\THEFT</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS\INTIMIDATION AMONG STUD</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS\PHYSICAL FIGHT</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS\INTIMIDATION OF TEACHER</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS TEACH\ARRIVING LATE AT SCHOOL</t>
+  </si>
+  <si>
+    <t>GEN\DEGREE PROBS TEACH\ABSENTEEISM</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\RECOGNIZE LETTERS</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\READ WORDS</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\READ SENTENCES</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\WRITE LETTERS</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\WRITE SOME WORDS</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\COUNT UP TO 100</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\RECOGNIZE NUMBERS FROM</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\NUMBERS HIGHER THAN</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\WRITE NUMBERS</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\DO SIMPLE ADDITION</t>
+  </si>
+  <si>
+    <t>GEN\PRIMARY SCHOOL\DO SIMPLE SUBTRACTION</t>
+  </si>
+  <si>
+    <t>GEN\YEARS PRINCIPAL ALTOGETHER</t>
+  </si>
+  <si>
+    <t>GEN\YEARS PRINCIPAL AT THIS SCHOOL</t>
+  </si>
+  <si>
+    <t>GEN\HIGHEST LEVEL OF FORMAL EDUCATION</t>
+  </si>
+  <si>
+    <t>GEN\DEGREES IN EDUCATION LEADERSHIP\ISCED 7</t>
+  </si>
+  <si>
+    <t>GEN\DEGREES IN EDUCATION LEADERSHIP\ISCED 8</t>
+  </si>
+  <si>
+    <t>SCHOOL LEVEL WEIGHT</t>
+  </si>
+  <si>
+    <t>SUM OF STUDENT WEIGHTS</t>
+  </si>
+  <si>
+    <t>REPLICATE CODE</t>
+  </si>
+  <si>
+    <t>ZONE CODE</t>
+  </si>
+  <si>
+    <t>Instr Aff by Mat Res Shortage-Prncpl/SCL</t>
+  </si>
+  <si>
+    <t>Instr Aff by Mat Res Shortage-Prncpl/IDX</t>
+  </si>
+  <si>
+    <t>Instr Aff by Sci Res Shortage-Prncpl/SCL</t>
+  </si>
+  <si>
+    <t>Instr Aff by Sci Res Shortage-Prncpl/IDX</t>
+  </si>
+  <si>
+    <t>School Emph on Acad Success-Prncpl/SCL</t>
+  </si>
+  <si>
+    <t>School Emph on Acad Success-Prncpl/IDX</t>
+  </si>
+  <si>
+    <t>School Discipline Problems-Prncpl/SCL</t>
+  </si>
+  <si>
+    <t>School Discipline Problems-Prncpl/IDX</t>
+  </si>
+  <si>
+    <t>Stds Enter with Lit and Num Skills/SCL</t>
+  </si>
+  <si>
+    <t>Stds Enter with Lit and Num Skills/IDX</t>
+  </si>
+  <si>
+    <t>School Composition by Std Background</t>
+  </si>
+  <si>
+    <t>Total Instructional Hours per Year</t>
+  </si>
+  <si>
+    <t>96, 99</t>
+  </si>
+  <si>
+    <t>Percentage of disadvantaged students attending the school</t>
+  </si>
+  <si>
+    <t>Percentage of students having the language of test as their native language</t>
+  </si>
+  <si>
+    <t>Number of people live in the school area</t>
+  </si>
+  <si>
+    <t>School location</t>
+  </si>
+  <si>
+    <t>(1=6) (2=5) (3=4) (4=3) (5=2) (6=1) (7=0)</t>
+  </si>
+  <si>
+    <t>Instructional time</t>
+  </si>
+  <si>
+    <t>SchDays</t>
+  </si>
+  <si>
+    <t>SchTime</t>
+  </si>
+  <si>
+    <t>InstDay</t>
+  </si>
+  <si>
+    <t>(1=4) (2=3) (3=2) (4=1) (5=0) (6=5)</t>
+  </si>
+  <si>
+    <t>Science laborat</t>
+  </si>
+  <si>
+    <t>Number of computers at school</t>
+  </si>
+  <si>
+    <t>Available assisstant for experiment</t>
+  </si>
+  <si>
+    <t>NumComp</t>
+  </si>
+  <si>
+    <t>SciLab</t>
+  </si>
+  <si>
+    <t>AssLab</t>
+  </si>
+  <si>
+    <t>School library</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortage affecting school’s capacity to provide general instruction  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortage affecting school’s capacity to provide math instruction  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortage affecting school’s capacity to provide science instruction  </t>
+  </si>
+  <si>
+    <t>SrtMatrl</t>
+  </si>
+  <si>
+    <t>SrtSuply</t>
+  </si>
+  <si>
+    <t>SrtBuild</t>
+  </si>
+  <si>
+    <t>SrtHeat</t>
+  </si>
+  <si>
+    <t>SrtSpace</t>
+  </si>
+  <si>
+    <t>SrtTech</t>
+  </si>
+  <si>
+    <t>SrtAudio</t>
+  </si>
+  <si>
+    <t>SrtComp</t>
+  </si>
+  <si>
+    <t>SrtDisab</t>
+  </si>
+  <si>
+    <t>SrtMTch</t>
+  </si>
+  <si>
+    <t>SrtMComp</t>
+  </si>
+  <si>
+    <t>SrtMLib</t>
+  </si>
+  <si>
+    <t>SrtMCal</t>
+  </si>
+  <si>
+    <t>SrtMEqu</t>
+  </si>
+  <si>
+    <t>SrtSTch</t>
+  </si>
+  <si>
+    <t>SrtSComp</t>
+  </si>
+  <si>
+    <t>SrtSLib</t>
+  </si>
+  <si>
+    <t>SrtSEqu</t>
+  </si>
+  <si>
+    <t>School emphasis on academic success</t>
+  </si>
+  <si>
+    <t>STchUndC</t>
+  </si>
+  <si>
+    <t>STchSucC</t>
+  </si>
+  <si>
+    <t>STchExpC</t>
+  </si>
+  <si>
+    <t>STchInsC</t>
+  </si>
+  <si>
+    <t>SParInvC</t>
+  </si>
+  <si>
+    <t>SParComC</t>
+  </si>
+  <si>
+    <t>SParExpC</t>
+  </si>
+  <si>
+    <t>SParSuppC</t>
+  </si>
+  <si>
+    <t>SStdWellC</t>
+  </si>
+  <si>
+    <t>SStdGoalC</t>
+  </si>
+  <si>
+    <t>SStdRespC</t>
+  </si>
+  <si>
+    <t>Achievement tracking math</t>
+  </si>
+  <si>
+    <t>Achievement tracking science</t>
+  </si>
+  <si>
+    <t>AchTrM</t>
+  </si>
+  <si>
+    <t>AchTrS</t>
+  </si>
+  <si>
+    <t>Schoolwork assistance place</t>
+  </si>
+  <si>
+    <t>Schoolwork assistance staff</t>
+  </si>
+  <si>
+    <t>WkAstPlc</t>
+  </si>
+  <si>
+    <t>WkAstStf</t>
+  </si>
+  <si>
+    <t>Free meals breakfast</t>
+  </si>
+  <si>
+    <t>Free meals lunch</t>
+  </si>
+  <si>
+    <t>FreeBkf</t>
+  </si>
+  <si>
+    <t>FreeLch</t>
+  </si>
+  <si>
+    <t>Health topics washing hands</t>
+  </si>
+  <si>
+    <t>Health topics brushing teeth</t>
+  </si>
+  <si>
+    <t>Health topics disease prevention</t>
+  </si>
+  <si>
+    <t>Health topics nutrition</t>
+  </si>
+  <si>
+    <t>HTopHand</t>
+  </si>
+  <si>
+    <t>HTopNutr</t>
+  </si>
+  <si>
+    <t>HTopTeth</t>
+  </si>
+  <si>
+    <t>HTopPrev</t>
+  </si>
+  <si>
+    <t>Library books print</t>
+  </si>
+  <si>
+    <t>Library books digital</t>
+  </si>
+  <si>
+    <t>Library magazines print</t>
+  </si>
+  <si>
+    <t>Library magazines digital</t>
+  </si>
+  <si>
+    <t>LibBkPt</t>
+  </si>
+  <si>
+    <t>LibBkDg</t>
+  </si>
+  <si>
+    <t>LibMgPt</t>
+  </si>
+  <si>
+    <t>LibMgDg</t>
+  </si>
+  <si>
+    <t>STchTogC</t>
+  </si>
+  <si>
+    <t>SParPresC</t>
+  </si>
+  <si>
+    <t>School discipline and safety</t>
+  </si>
+  <si>
+    <t>SDLate</t>
+  </si>
+  <si>
+    <t>SDAbsnt</t>
+  </si>
+  <si>
+    <t>SDDistrb</t>
+  </si>
+  <si>
+    <t>SDCheat</t>
+  </si>
+  <si>
+    <t>SDProfnt</t>
+  </si>
+  <si>
+    <t>SDVandl</t>
+  </si>
+  <si>
+    <t>SDTheft</t>
+  </si>
+  <si>
+    <t>SDIntim</t>
+  </si>
+  <si>
+    <t>SDFight</t>
+  </si>
+  <si>
+    <t>SDAbuse</t>
+  </si>
+  <si>
+    <t>TchLate</t>
+  </si>
+  <si>
+    <t>TchAbsent</t>
+  </si>
+  <si>
+    <t>Teacher problem</t>
+  </si>
+  <si>
+    <t>School readiness</t>
+  </si>
+  <si>
+    <t>SRLetter</t>
+  </si>
+  <si>
+    <t>SRWord</t>
+  </si>
+  <si>
+    <t>SRSenten</t>
+  </si>
+  <si>
+    <t>SRWrite</t>
+  </si>
+  <si>
+    <t>SRWrtWo</t>
+  </si>
+  <si>
+    <t>SRCount</t>
+  </si>
+  <si>
+    <t>SRNumber</t>
+  </si>
+  <si>
+    <t>SRNumHIg</t>
+  </si>
+  <si>
+    <t>SRWrtNum</t>
+  </si>
+  <si>
+    <t>SRAdditn</t>
+  </si>
+  <si>
+    <t>SRSubtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal years of experience </t>
+  </si>
+  <si>
+    <t>PrcplYear</t>
+  </si>
+  <si>
+    <t>PrYearSc</t>
+  </si>
+  <si>
+    <t>Principal highest level of education</t>
+  </si>
+  <si>
+    <t>PrEdu</t>
+  </si>
+  <si>
+    <t>Principal qualification in educational leadership</t>
+  </si>
+  <si>
+    <t>PrLdrMas</t>
+  </si>
+  <si>
+    <t>PrLdrDoc</t>
+  </si>
+  <si>
+    <t>TIMSS construct: Instruction Affected by Math Resource Shortage</t>
+  </si>
+  <si>
+    <t>SCLMRes</t>
+  </si>
+  <si>
+    <t>IDXMRes</t>
+  </si>
+  <si>
+    <t>TIMSS construct: Instruction Affected by Science Resource Shortage</t>
+  </si>
+  <si>
+    <t>SCLSRes</t>
+  </si>
+  <si>
+    <t>IDXSRes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1=0) (2=1) (3=2) </t>
+  </si>
+  <si>
+    <t>TIMSS construct: SEAS principal</t>
+  </si>
+  <si>
+    <t>SCLseasC</t>
+  </si>
+  <si>
+    <t>IDXseasC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1=2) (2=1) (3=0) </t>
+  </si>
+  <si>
+    <t>TIMSS construct: School Discipline-Principal</t>
+  </si>
+  <si>
+    <t>SCLdiscp</t>
+  </si>
+  <si>
+    <t>IDXdiscp</t>
+  </si>
+  <si>
+    <t>TIMSS construct: Students Enter with Literacy and Numeracy Skills</t>
+  </si>
+  <si>
+    <t>School Composition by Socioeconomic Background</t>
+  </si>
+  <si>
+    <t>SchSES</t>
+  </si>
+  <si>
+    <t>InstHour</t>
+  </si>
+  <si>
+    <t>SCLready</t>
+  </si>
+  <si>
+    <t>IDXready</t>
+  </si>
+  <si>
+    <t>SchDisad</t>
+  </si>
+  <si>
+    <t>SchEco</t>
+  </si>
+  <si>
+    <t>SchLang</t>
+  </si>
+  <si>
+    <t>SchPop</t>
+  </si>
+  <si>
+    <t>SchArea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3702,6 +5912,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Fira Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Fira Code"/>
       <family val="3"/>
     </font>
@@ -3744,7 +5959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3791,6 +6006,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4107,9 +6332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949DE4E2-7D4A-446A-A6CA-4CB08BBB8E1C}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5848,12 +8071,3784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002BDED7-C15A-4121-ADEB-CC76BB47DC97}">
+  <dimension ref="A1:G223"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17">
+        <v>9999</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
+        <v>99999999</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F8" s="17">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F9" s="17">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F10" s="17">
+        <v>99</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F11" s="17">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F12" s="17">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F13" s="17">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F14" s="17">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="F15" s="17">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F16" s="17">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F17" s="17">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F18" s="17">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="F19" s="17">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F20" s="17">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F21" s="17">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F22" s="17">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F23" s="17">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F24" s="17">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F25" s="17">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F26" s="17">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F27" s="17">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F28" s="17">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F29" s="17">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F30" s="17">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F31" s="17">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F32" s="17">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F33" s="17">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F34" s="17">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F35" s="17">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F36" s="17">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F37" s="17">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F38" s="17">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F39" s="17">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F40" s="17">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F41" s="17">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F42" s="17">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F43" s="17">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F44" s="17">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F45" s="17">
+        <v>9</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F46" s="17">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F47" s="17">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F48" s="17">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F49" s="17">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F50" s="17">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F51" s="17">
+        <v>9</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F52" s="17">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F53" s="17">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F54" s="17">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F55" s="17">
+        <v>9</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F56" s="17">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F57" s="17">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F58" s="17">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F59" s="17">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F60" s="17">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F61" s="17">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F62" s="17">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F63" s="17">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F64" s="17">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F65" s="17">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F66" s="17">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F67" s="17">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F68" s="17">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F69" s="17">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F70" s="17">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F71" s="17">
+        <v>9</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F72" s="17">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F73" s="17">
+        <v>9</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F74" s="17">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F75" s="17">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F76" s="17">
+        <v>9</v>
+      </c>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F77" s="17">
+        <v>9</v>
+      </c>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F78" s="17">
+        <v>9</v>
+      </c>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F79" s="17">
+        <v>9</v>
+      </c>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F80" s="17">
+        <v>9</v>
+      </c>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F81" s="17">
+        <v>9</v>
+      </c>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F82" s="17">
+        <v>9</v>
+      </c>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F83" s="17">
+        <v>9</v>
+      </c>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F84" s="17">
+        <v>9</v>
+      </c>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F85" s="17">
+        <v>9</v>
+      </c>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F86" s="17">
+        <v>9</v>
+      </c>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F87" s="17">
+        <v>9</v>
+      </c>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F88" s="17">
+        <v>9</v>
+      </c>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F89" s="17">
+        <v>9</v>
+      </c>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F90" s="17">
+        <v>9</v>
+      </c>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F91" s="17">
+        <v>9</v>
+      </c>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="16" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F92" s="17">
+        <v>9</v>
+      </c>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F93" s="17">
+        <v>9</v>
+      </c>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="16" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F94" s="17">
+        <v>9</v>
+      </c>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F95" s="17">
+        <v>9</v>
+      </c>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F96" s="17">
+        <v>9</v>
+      </c>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F97" s="17">
+        <v>9</v>
+      </c>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F98" s="17">
+        <v>9</v>
+      </c>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="16" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F99" s="17">
+        <v>9</v>
+      </c>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F100" s="17">
+        <v>9</v>
+      </c>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="16" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F101" s="17">
+        <v>9</v>
+      </c>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="16" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="16" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="17">
+        <v>9</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="17">
+        <v>9</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="17">
+        <v>9</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="16" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="17">
+        <v>99</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="16" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B107" s="10"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="16" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B108" s="10"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="16" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B111" s="16"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="16" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B112" s="16"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="16" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="16" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B113" s="16"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="16" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="16" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B114" s="16"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="16" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="16"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="17">
+        <v>99</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="16"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="17">
+        <v>9</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F118" s="17">
+        <v>9</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F120" s="17">
+        <v>9</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E121" s="10"/>
+      <c r="F121" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F122" s="17">
+        <v>9</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F124" s="17">
+        <v>9</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F126" s="17">
+        <v>9</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F128" s="17">
+        <v>9</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="16" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F130" s="17">
+        <v>9</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="16" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F132" s="17">
+        <v>9</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="16" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F134" s="17">
+        <v>9</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="16" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="17">
+        <v>9</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="16" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F136" s="17">
+        <v>9</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="16" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F137" s="17">
+        <v>9</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>292</v>
+      </c>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138" t="s">
+        <v>294</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138">
+        <v>99</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>293</v>
+      </c>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139" t="s">
+        <v>295</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>296</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="10"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="10"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="10"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="10"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="10"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="16"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="16"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="16"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="16"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="10"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="16"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="10"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="10"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="16"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="10"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="10"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="16"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="10"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="16"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="10"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="16"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="16"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="10"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="16"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="16"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="10"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="16"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="10"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="16"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="10"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="16"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="10"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="16"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="10"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="16"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="10"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="16"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="10"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="16"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="16"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="10"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="10"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="16"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="10"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="16"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="10"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="10"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="10"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="16"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="10"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="16"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="10"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="16"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="10"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="16"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="10"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="10"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="16"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="10"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="10"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="16"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="10"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="16"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="10"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="10"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="16"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="10"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="16"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="10"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="16"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="10"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="16"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="10"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="16"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="10"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="16"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="10"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="16"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="10"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="16"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="10"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="16"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="17"/>
+      <c r="G210" s="10"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="16"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="10"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="16"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="10"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="16"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="10"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="16"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="16"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="10"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="16"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="10"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="16"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="17"/>
+      <c r="G216" s="10"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="16"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="10"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="16"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="16"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="10"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="16"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="10"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="16"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="16"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="10"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="16"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="10"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="16"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="10"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="16"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="16"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5FA07-9B9D-4A17-BC77-5F8D8DD42BC3}">
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9555,7 +15550,7 @@
       <c r="D170" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="E170" s="15" t="s">
+      <c r="E170" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F170" s="7">
@@ -9578,7 +15573,7 @@
       <c r="D171" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="E171" s="15" t="s">
+      <c r="E171" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F171" s="7">
@@ -9601,7 +15596,7 @@
       <c r="D172" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="E172" s="15" t="s">
+      <c r="E172" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F172" s="7">
@@ -9624,7 +15619,7 @@
       <c r="D173" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="E173" s="15" t="s">
+      <c r="E173" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F173" s="7">
@@ -9647,7 +15642,7 @@
       <c r="D174" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="E174" s="15" t="s">
+      <c r="E174" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F174" s="7">
@@ -9670,7 +15665,7 @@
       <c r="D175" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="E175" s="15" t="s">
+      <c r="E175" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F175" s="7">
@@ -9693,7 +15688,7 @@
       <c r="D176" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="E176" s="15" t="s">
+      <c r="E176" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F176" s="7">
@@ -9716,7 +15711,7 @@
       <c r="D177" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="E177" s="15" t="s">
+      <c r="E177" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F177" s="7">
@@ -9739,7 +15734,7 @@
       <c r="D178" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="E178" s="15" t="s">
+      <c r="E178" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F178" s="7">
@@ -9762,7 +15757,7 @@
       <c r="D179" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="E179" s="15" t="s">
+      <c r="E179" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F179" s="7">
@@ -9785,7 +15780,7 @@
       <c r="D180" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="E180" s="15" t="s">
+      <c r="E180" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F180" s="7">
@@ -9808,7 +15803,7 @@
       <c r="D181" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="E181" s="15" t="s">
+      <c r="E181" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F181" s="7">
@@ -9831,7 +15826,7 @@
       <c r="D182" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="E182" s="15" t="s">
+      <c r="E182" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F182" s="7">
@@ -9854,7 +15849,7 @@
       <c r="D183" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="E183" s="15" t="s">
+      <c r="E183" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F183" s="7">
@@ -9877,7 +15872,7 @@
       <c r="D184" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="E184" s="15" t="s">
+      <c r="E184" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F184" s="7">
@@ -9900,7 +15895,7 @@
       <c r="D185" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E185" s="15" t="s">
+      <c r="E185" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F185" s="7">
@@ -9923,7 +15918,7 @@
       <c r="D186" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="E186" s="15" t="s">
+      <c r="E186" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="F186" s="7">
@@ -12627,6 +18622,3480 @@
       <c r="G305" s="1" t="s">
         <v>204</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA364EA-0246-4213-9E17-30402EABB826}">
+  <dimension ref="A1:G223"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17">
+        <v>9999</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F4" s="17">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F5" s="17">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F6" s="17">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F7" s="17">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="17">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="F9" s="17">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="F10" s="17">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F11" s="17">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F12" s="17">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F13" s="17">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F14" s="17">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="17">
+        <v>999</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="17">
+        <v>999</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F17" s="17">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="F18" s="17">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="F20" s="17">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="F21" s="17">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="17">
+        <v>9999</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F23" s="17">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F24" s="17">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F25" s="17">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F30" s="17">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F31" s="17">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F32" s="17">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F33" s="17">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F34" s="17">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F35" s="17">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F36" s="17">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F37" s="17">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F38" s="17">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F39" s="17">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F40" s="17">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F41" s="17">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F42" s="17">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F43" s="17">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F44" s="17">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F45" s="17">
+        <v>9</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F46" s="17">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F47" s="17">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F48" s="17">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F49" s="17">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F50" s="17">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F51" s="17">
+        <v>9</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F52" s="17">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F53" s="17">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F54" s="17">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F55" s="17">
+        <v>9</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F56" s="17">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F57" s="17">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F58" s="17">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F59" s="17">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F60" s="17">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F61" s="17">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F62" s="17">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F63" s="17">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F64" s="17">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F65" s="17">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F66" s="17">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F67" s="17">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F68" s="17">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F69" s="17">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F70" s="17">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F71" s="17">
+        <v>9</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F72" s="17">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F73" s="17">
+        <v>9</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F74" s="17">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F75" s="17">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F76" s="17">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F77" s="17">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F78" s="17">
+        <v>9</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F79" s="17">
+        <v>9</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F80" s="17">
+        <v>9</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F81" s="17">
+        <v>9</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F82" s="17">
+        <v>9</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F83" s="17">
+        <v>9</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="17">
+        <v>99</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="17">
+        <v>99</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F86" s="17">
+        <v>9</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F87" s="17">
+        <v>9</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F88" s="17">
+        <v>9</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="17">
+        <v>9</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="17">
+        <v>99</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="17">
+        <v>9</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="16" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="16" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="16" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="16" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="16" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="16" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="16" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="17">
+        <v>9</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="16" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="17">
+        <v>99</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="16" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F99" s="17">
+        <v>9</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="16" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F101" s="17">
+        <v>9</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F103" s="17">
+        <v>9</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F105" s="17">
+        <v>9</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="17">
+        <v>999999</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F107" s="17">
+        <v>9</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F108" s="17">
+        <v>9</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="17">
+        <v>9999</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="17">
+        <v>99</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B111" s="16"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="16"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="16"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="16"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="1:7" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="1:7" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="10"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="10"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="10"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="10"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="10"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="16"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="16"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="16"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="16"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="10"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="16"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="10"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="16"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="10"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="16"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="10"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="10"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="16"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="10"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="16"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="10"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="16"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="16"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="10"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="16"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="16"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="10"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="16"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="10"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="16"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="10"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="16"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="10"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="16"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="10"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="16"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="10"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="16"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="10"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="16"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="16"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="10"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="10"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="16"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="10"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="16"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="10"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="10"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="10"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="16"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="10"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="16"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="10"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="16"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="10"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="16"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="10"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="10"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="16"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="10"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="10"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="16"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="10"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="16"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="10"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="10"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="16"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="10"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="16"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="10"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="16"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="10"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="16"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="10"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="16"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="10"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="16"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="10"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="16"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="10"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="16"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="10"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="16"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="17"/>
+      <c r="G210" s="10"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="16"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="10"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="16"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="10"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="16"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="10"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="16"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="16"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="10"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="16"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="10"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="16"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="17"/>
+      <c r="G216" s="10"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="16"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="10"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="16"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="16"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="10"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="16"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="10"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="16"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="16"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="10"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="16"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="10"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="16"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="10"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="16"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="16"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
